--- a/web/features/step_definitions/demo.xlsx
+++ b/web/features/step_definitions/demo.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17426"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="user_data" sheetId="1" r:id="rId1"/>
@@ -469,8 +469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -552,8 +552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/web/features/step_definitions/demo.xlsx
+++ b/web/features/step_definitions/demo.xlsx
@@ -470,7 +470,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -553,7 +553,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
